--- a/biology/Botanique/Phlegmariurus_varius/Phlegmariurus_varius.xlsx
+++ b/biology/Botanique/Phlegmariurus_varius/Phlegmariurus_varius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlegmariurus varius est une espèce de plantes de la famille des Lycopodiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlegmariurus varius se rencontre en Australie, en Nouvelle-Zélande et dans îles voisines et peut pousser sur le sol et comme lithophyte ou épiphyte.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phlegmariurus varius peut avoir une ou plusieurs branches disposées en spirale avec des feuilles minces qui se rétrécissent en pointe. La plante varie du vert au vert-jaune et est parfois d'apparence orange[1]. Un article récent fournit des preuves morphologiques et génétiques pour séparer Phlegmariurus billardierei , la seule espèce de Lycopodiaceae endémique de Nouvelle-Zélande, de Phlegmariurus varius[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phlegmariurus varius peut avoir une ou plusieurs branches disposées en spirale avec des feuilles minces qui se rétrécissent en pointe. La plante varie du vert au vert-jaune et est parfois d'apparence orange. Un article récent fournit des preuves morphologiques et génétiques pour séparer Phlegmariurus billardierei , la seule espèce de Lycopodiaceae endémique de Nouvelle-Zélande, de Phlegmariurus varius,.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phlegmariurus varius (R.Br.) A.R.Field (d) &amp; Bostock (d)[4].
-L'espèce a été initialement classée dans le genre Lycopodium sous le basionyme Lycopodium varium R.Br.[4].
-Phlegmariurus varius a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phlegmariurus varius (R.Br.) A.R.Field (d) &amp; Bostock (d).
+L'espèce a été initialement classée dans le genre Lycopodium sous le basionyme Lycopodium varium R.Br..
+Phlegmariurus varius a pour synonymes :
 Huperzia billardieri (Spring) Trevis.
 Huperzia desvauxii Holub
 Huperzia novae-zelandica (Colenso) Holub
